--- a/SDBS3000/Resources/CPK.xlsx
+++ b/SDBS3000/Resources/CPK.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>上海剑平动平衡机制造有限公司</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>121--125</t>
+  </si>
+  <si>
+    <t>126--130</t>
+  </si>
+  <si>
+    <t>131-135</t>
+  </si>
+  <si>
+    <t>136-140</t>
+  </si>
+  <si>
+    <t>141-145</t>
+  </si>
+  <si>
+    <t>146-150</t>
   </si>
   <si>
     <t>MAX(最大值)</t>
@@ -11030,7 +11045,7 @@
   <dimension ref="A1:R126"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -11708,11 +11723,21 @@
       <c r="F21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="L21"/>
       <c r="M21" s="3">
         <v>20</v>
@@ -11908,7 +11933,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:17">
       <c r="A28" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -11945,7 +11970,7 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:17">
       <c r="A29" s="32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
@@ -11979,7 +12004,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:17">
       <c r="A30" s="32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -12013,7 +12038,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:17">
       <c r="A31" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
@@ -12079,7 +12104,7 @@
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:17">
       <c r="A33" s="49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -12110,7 +12135,7 @@
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17">
       <c r="A34" s="51" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -12141,7 +12166,7 @@
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17">
       <c r="A35" s="53" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="54"/>
       <c r="E35" s="55" t="e">
@@ -12174,7 +12199,7 @@
     <row r="36" ht="18.95" customHeight="1" spans="1:17">
       <c r="A36" s="56"/>
       <c r="B36" s="57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
@@ -12182,7 +12207,7 @@
       <c r="F36" s="57"/>
       <c r="G36" s="58"/>
       <c r="H36" s="57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -13884,7 +13909,7 @@
   <dimension ref="A1:R126"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14562,11 +14587,21 @@
       <c r="F21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="L21"/>
       <c r="M21" s="3">
         <v>20</v>
@@ -14762,7 +14797,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:17">
       <c r="A28" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -14799,7 +14834,7 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:17">
       <c r="A29" s="32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
@@ -14833,7 +14868,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:17">
       <c r="A30" s="32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -14867,7 +14902,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:17">
       <c r="A31" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
@@ -14933,7 +14968,7 @@
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:17">
       <c r="A33" s="49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -14964,7 +14999,7 @@
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17">
       <c r="A34" s="51" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -14995,7 +15030,7 @@
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17">
       <c r="A35" s="53" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="54"/>
       <c r="E35" s="55" t="e">
@@ -15028,7 +15063,7 @@
     <row r="36" ht="18.95" customHeight="1" spans="1:17">
       <c r="A36" s="56"/>
       <c r="B36" s="57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
@@ -15036,7 +15071,7 @@
       <c r="F36" s="57"/>
       <c r="G36" s="58"/>
       <c r="H36" s="57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -16738,7 +16773,7 @@
   <dimension ref="A1:R126"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17416,11 +17451,21 @@
       <c r="F21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="L21"/>
       <c r="M21" s="3">
         <v>20</v>
@@ -17616,7 +17661,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:17">
       <c r="A28" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -17653,7 +17698,7 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:17">
       <c r="A29" s="32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
@@ -17687,7 +17732,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:17">
       <c r="A30" s="32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -17721,7 +17766,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:17">
       <c r="A31" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
@@ -17787,7 +17832,7 @@
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:17">
       <c r="A33" s="49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -17818,7 +17863,7 @@
     </row>
     <row r="34" ht="18.95" customHeight="1" spans="1:17">
       <c r="A34" s="51" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -17849,7 +17894,7 @@
     </row>
     <row r="35" ht="18.95" customHeight="1" spans="1:17">
       <c r="A35" s="53" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="54"/>
       <c r="E35" s="55" t="e">
@@ -17882,7 +17927,7 @@
     <row r="36" ht="18.95" customHeight="1" spans="1:17">
       <c r="A36" s="56"/>
       <c r="B36" s="57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
@@ -17890,7 +17935,7 @@
       <c r="F36" s="57"/>
       <c r="G36" s="58"/>
       <c r="H36" s="57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
